--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_6_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_6_square_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.88000000000029</v>
+        <v>24.08000000000033</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.331226631817728e-05</v>
+        <v>9.673536133014693e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>1.331226631817728e-05</v>
+        <v>9.673536133014693e-06</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>50.4031831291291</v>
+        <v>55.94790282046719</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[28.56031156800924, 72.24605469024897]</t>
+          <t>[29.450986528447928, 82.44481911248646]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2.944105171698297e-05</v>
+        <v>0.0001052924133282396</v>
       </c>
       <c r="O2" t="n">
-        <v>2.944105171698297e-05</v>
+        <v>0.0001052924133282396</v>
       </c>
       <c r="P2" t="n">
-        <v>1.704447665911579</v>
+        <v>1.226447582482502</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.1761317842268095, 2.232763547596349]</t>
+          <t>[0.6855527512338089, 1.7673424137311944]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>5.678621795013328e-08</v>
+        <v>3.831238604945497e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>5.678621795013328e-08</v>
+        <v>3.831238604945497e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>58.02065263238894</v>
+        <v>65.72112959929896</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[44.75723460841904, 71.28407065635885]</t>
+          <t>[51.205237370971375, 80.23702182762655]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.349764827158651e-11</v>
+        <v>8.61466453727644e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>2.349764827158651e-11</v>
+        <v>8.61466453727644e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>17.40204204204226</v>
+        <v>19.37969969969996</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.39411411411431</v>
+        <v>17.30674674674698</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.40996996997021</v>
+        <v>21.45265265265294</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.88000000000029</v>
+        <v>24.08000000000033</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0188201011766832</v>
+        <v>1.226671726162198e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0188201011766832</v>
+        <v>1.226671726162198e-05</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>40.70522893074472</v>
+        <v>51.5709127334451</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[7.194414214308026, 74.21604364718142]</t>
+          <t>[26.405830104188297, 76.7359953627019]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.01839612297012083</v>
+        <v>0.0001565063980508707</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01839612297012083</v>
+        <v>0.0001565063980508707</v>
       </c>
       <c r="P3" t="n">
-        <v>1.427710775505271</v>
+        <v>2.081816152829272</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.24528951649649944, 2.6101320345140424]</t>
+          <t>[1.5786581702723472, 2.5849741353861964]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.01906159558882381</v>
+        <v>1.133624305538206e-10</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01906159558882381</v>
+        <v>1.133624305538206e-10</v>
       </c>
       <c r="T3" t="n">
-        <v>66.50355399602222</v>
+        <v>60.96993183011804</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[46.88485047832552, 86.12225751371892]</t>
+          <t>[47.40922339720848, 74.5306402630276]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.83783819274197e-08</v>
+        <v>1.057887111244327e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>1.83783819274197e-08</v>
+        <v>1.057887111244327e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>18.45381381381404</v>
+        <v>16.10154154154176</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.95987987988005</v>
+        <v>14.1732132132134</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.94774774774804</v>
+        <v>18.02986986987012</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.88000000000029</v>
+        <v>24.08000000000033</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03620559147358937</v>
+        <v>8.527500181454428e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03620559147358937</v>
+        <v>8.527500181454428e-05</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>31.78158720282069</v>
+        <v>63.95230906210087</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[1.9524627940263812, 61.610711611614995]</t>
+          <t>[34.67125996598391, 93.23335815821783]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.0373078203984234</v>
+        <v>6.595440847823042e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0373078203984234</v>
+        <v>6.595440847823042e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>1.792500312859041</v>
+        <v>1.591237119836271</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.5094474573388847, 3.075553168379198]</t>
+          <t>[0.9748685912040393, 2.207605648468503]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.007234478205516703</v>
+        <v>4.718438163964223e-06</v>
       </c>
       <c r="S4" t="n">
-        <v>0.007234478205516703</v>
+        <v>4.718438163964223e-06</v>
       </c>
       <c r="T4" t="n">
-        <v>59.38135400442947</v>
+        <v>68.97083408855211</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[42.502290211952165, 76.26041779690678]</t>
+          <t>[50.06347676613868, 87.87819141096554]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>7.605660767850964e-09</v>
+        <v>3.12350123543581e-09</v>
       </c>
       <c r="W4" t="n">
-        <v>7.605660767850964e-09</v>
+        <v>3.12350123543581e-09</v>
       </c>
       <c r="X4" t="n">
-        <v>17.0673873873876</v>
+        <v>17.98166166166191</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.19099099099114</v>
+        <v>15.61945945945967</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.94378378378406</v>
+        <v>20.34386386386414</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.88000000000029</v>
+        <v>24.08000000000033</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0001167412722331562</v>
+        <v>0.0008543181850799719</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001167412722331562</v>
+        <v>0.0008543181850799719</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>50.89032291985141</v>
+        <v>42.86916739963277</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[24.431680803918056, 77.34896503578477]</t>
+          <t>[16.751833381822962, 68.98650141744257]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0003445090123959105</v>
+        <v>0.001864770619364631</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0003445090123959105</v>
+        <v>0.001864770619364631</v>
       </c>
       <c r="P5" t="n">
-        <v>1.742184514603348</v>
+        <v>1.364816027685655</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.1132370364071935, 2.371131992799503]</t>
+          <t>[0.635236952978115, 2.094395102393195]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.310452079517077e-06</v>
+        <v>0.0004765024184938405</v>
       </c>
       <c r="S5" t="n">
-        <v>1.310452079517077e-06</v>
+        <v>0.0004765024184938405</v>
       </c>
       <c r="T5" t="n">
-        <v>65.94658749555367</v>
+        <v>61.81000162425103</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[50.639134530492484, 81.25404046061486]</t>
+          <t>[46.81937941053786, 76.8006238379642]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.642064427822334e-11</v>
+        <v>1.2470802168707e-10</v>
       </c>
       <c r="W5" t="n">
-        <v>3.642064427822334e-11</v>
+        <v>1.2470802168707e-10</v>
       </c>
       <c r="X5" t="n">
-        <v>17.25861861861883</v>
+        <v>18.84940940940967</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.86822822822841</v>
+        <v>16.05333333333355</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.64900900900925</v>
+        <v>21.64548548548578</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.88000000000029</v>
+        <v>24.08000000000033</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002008100280250447</v>
+        <v>0.0009592802262278211</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002008100280250447</v>
+        <v>0.0009592802262278211</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>46.0149640197145</v>
+        <v>38.10735167269533</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[17.687445777433837, 74.34248226199516]</t>
+          <t>[15.197442507176156, 61.017260838214504]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.002056626543430085</v>
+        <v>0.001642285833519663</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002056626543430085</v>
+        <v>0.001642285833519663</v>
       </c>
       <c r="P6" t="n">
-        <v>1.490605523324887</v>
+        <v>1.943447707626119</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.6478159025420398, 2.333395144107734]</t>
+          <t>[1.2516054816103486, 2.6352899336418885]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0008831637364608014</v>
+        <v>1.002907303648826e-06</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0008831637364608014</v>
+        <v>1.002907303648826e-06</v>
       </c>
       <c r="T6" t="n">
-        <v>58.40794585312226</v>
+        <v>52.98378574584978</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[41.13484175891441, 75.68104994733011]</t>
+          <t>[39.5355680524981, 66.43200343920145]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.946850969325453e-08</v>
+        <v>4.283216004097312e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>1.946850969325453e-08</v>
+        <v>4.283216004097312e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>18.214774774775</v>
+        <v>16.63183183183206</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.01165165165184</v>
+        <v>13.98038038038057</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.41789789789816</v>
+        <v>19.28328328328354</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.88000000000029</v>
+        <v>24.08000000000033</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0004161214322324636</v>
+        <v>0.0009612269819817554</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0004161214322324636</v>
+        <v>0.0009612269819817554</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>51.53439582728407</v>
+        <v>44.36714567818117</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[23.660220689127016, 79.40857096544113]</t>
+          <t>[17.58338481338663, 71.1509065429757]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0005445491722719797</v>
+        <v>0.001708979690091539</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0005445491722719797</v>
+        <v>0.001708979690091539</v>
       </c>
       <c r="P7" t="n">
-        <v>1.591237119836272</v>
+        <v>1.415131825941349</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.9119738433844242, 2.27050039628812]</t>
+          <t>[0.6855527512338098, 2.144710900648888]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.336028786609212e-05</v>
+        <v>0.0003114669904349388</v>
       </c>
       <c r="S7" t="n">
-        <v>2.336028786609212e-05</v>
+        <v>0.0003114669904349388</v>
       </c>
       <c r="T7" t="n">
-        <v>58.69996320629149</v>
+        <v>61.19996028937858</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[41.73775181629651, 75.66217459628646]</t>
+          <t>[45.52093414361265, 76.87898643514451]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.128646753834062e-08</v>
+        <v>5.484375176223466e-10</v>
       </c>
       <c r="W7" t="n">
-        <v>1.128646753834062e-08</v>
+        <v>5.484375176223466e-10</v>
       </c>
       <c r="X7" t="n">
-        <v>17.83231231231253</v>
+        <v>18.65657657657682</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.25069069069088</v>
+        <v>15.86050050050071</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.41393393393419</v>
+        <v>21.45265265265294</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.88000000000029</v>
+        <v>24.08000000000033</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.352227039270627e-05</v>
+        <v>1.12908819671631e-06</v>
       </c>
       <c r="I8" t="n">
-        <v>2.352227039270627e-05</v>
+        <v>1.12908819671631e-06</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>45.08391293220179</v>
+        <v>54.20521887674822</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[22.6868419807179, 67.48098388368568]</t>
+          <t>[34.14516612698789, 74.26527162650855]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.000196943863899568</v>
+        <v>2.082265026182029e-06</v>
       </c>
       <c r="O8" t="n">
-        <v>0.000196943863899568</v>
+        <v>2.082265026182029e-06</v>
       </c>
       <c r="P8" t="n">
-        <v>1.968605606753964</v>
+        <v>1.427710775505271</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1.440289725069193, 2.4969214884387343]</t>
+          <t>[0.9748685912040393, 1.8805529598065025]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.828430074013454e-09</v>
+        <v>9.423575653144667e-08</v>
       </c>
       <c r="S8" t="n">
-        <v>1.828430074013454e-09</v>
+        <v>9.423575653144667e-08</v>
       </c>
       <c r="T8" t="n">
-        <v>53.55573621184556</v>
+        <v>52.14334089256764</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[41.296514797158096, 65.81495762653302]</t>
+          <t>[39.55351404664714, 64.73316773848813]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.442601676477807e-11</v>
+        <v>1.102196112157117e-10</v>
       </c>
       <c r="W8" t="n">
-        <v>2.442601676477807e-11</v>
+        <v>1.102196112157117e-10</v>
       </c>
       <c r="X8" t="n">
-        <v>16.39807807807829</v>
+        <v>18.60836836836862</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.39015015015033</v>
+        <v>16.8728728728731</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.40600600600624</v>
+        <v>20.34386386386414</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.88000000000029</v>
+        <v>24.08000000000033</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0001339697368087922</v>
+        <v>2.235891482960106e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001339697368087922</v>
+        <v>2.235891482960106e-06</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>51.97565882686838</v>
+        <v>52.49504470195755</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[22.818651031401544, 81.13266662233522]</t>
+          <t>[31.78795459055918, 73.20213481335593]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0008124081837095343</v>
+        <v>6.458154654387371e-06</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0008124081837095343</v>
+        <v>6.458154654387371e-06</v>
       </c>
       <c r="P9" t="n">
-        <v>1.918289808498272</v>
+        <v>1.478026573760964</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.3145002294299637, 2.5220793875665812]</t>
+          <t>[1.0126054398958084, 1.9434477076261194]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>7.968715509676372e-08</v>
+        <v>8.046485588941721e-08</v>
       </c>
       <c r="S9" t="n">
-        <v>7.968715509676372e-08</v>
+        <v>8.046485588941721e-08</v>
       </c>
       <c r="T9" t="n">
-        <v>59.95207372787301</v>
+        <v>60.82147984980447</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[44.17008209025376, 75.73406536549227]</t>
+          <t>[48.22642361452404, 73.4165360850849]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.11508602351762e-09</v>
+        <v>1.232125512728999e-12</v>
       </c>
       <c r="W9" t="n">
-        <v>1.11508602351762e-09</v>
+        <v>1.232125512728999e-12</v>
       </c>
       <c r="X9" t="n">
-        <v>16.58930930930951</v>
+        <v>18.41553553553578</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.29453453453471</v>
+        <v>16.63183183183205</v>
       </c>
       <c r="Z9" t="n">
-        <v>18.88408408408432</v>
+        <v>20.19923923923951</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.9300000000003</v>
+        <v>23.42000000000022</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01452878840997973</v>
+        <v>4.490228553422071e-07</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01452878840997973</v>
+        <v>4.490228553422071e-07</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>35.36553995214187</v>
+        <v>64.07218497607408</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[5.903433918258884, 64.82764598602486]</t>
+          <t>[41.085122969841876, 87.05924698230629]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.01973240843989865</v>
+        <v>1.164107659379354e-06</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01973240843989865</v>
+        <v>1.164107659379354e-06</v>
       </c>
       <c r="P10" t="n">
-        <v>1.855395060678656</v>
+        <v>1.465447624197041</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.7484474990534249, 2.962342622303888]</t>
+          <t>[1.0377633390236554, 1.8931319093704264]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.001524627274421597</v>
+        <v>1.427746876281333e-08</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001524627274421597</v>
+        <v>1.427746876281333e-08</v>
       </c>
       <c r="T10" t="n">
-        <v>51.81520762555551</v>
+        <v>58.76224640224068</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[35.33855357648281, 68.29186167462821]</t>
+          <t>[44.71009926216548, 72.81439354231588]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>9.959163604911225e-08</v>
+        <v>8.436606968587057e-11</v>
       </c>
       <c r="W10" t="n">
-        <v>9.959163604911225e-08</v>
+        <v>8.436606968587057e-11</v>
       </c>
       <c r="X10" t="n">
-        <v>16.8635835835838</v>
+        <v>17.95767767767785</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.64768768768785</v>
+        <v>16.36352352352367</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.07947947947974</v>
+        <v>19.55183183183202</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.9300000000003</v>
+        <v>23.42000000000022</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.657651425990281e-05</v>
+        <v>0.0003999169896207189</v>
       </c>
       <c r="I11" t="n">
-        <v>1.657651425990281e-05</v>
+        <v>0.0003999169896207189</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>44.70531887816638</v>
+        <v>43.90587041441554</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[24.09354795305238, 65.31708980328038]</t>
+          <t>[17.64768761503383, 70.16405321379725]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>7.275476002366332e-05</v>
+        <v>0.001561045012891782</v>
       </c>
       <c r="O11" t="n">
-        <v>7.275476002366332e-05</v>
+        <v>0.001561045012891782</v>
       </c>
       <c r="P11" t="n">
-        <v>1.37739497724958</v>
+        <v>1.880552959806503</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.8239211964369622, 1.9308687580621973]</t>
+          <t>[1.2516054816103495, 2.5095004380026573]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>8.82776780475325e-06</v>
+        <v>2.894500148453716e-07</v>
       </c>
       <c r="S11" t="n">
-        <v>8.82776780475325e-06</v>
+        <v>2.894500148453716e-07</v>
       </c>
       <c r="T11" t="n">
-        <v>55.44719179805861</v>
+        <v>60.96098224997148</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[43.51666392983974, 67.37771966627749]</t>
+          <t>[46.649379893293684, 75.27258460664927]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3.952393967665557e-12</v>
+        <v>5.026112859241039e-11</v>
       </c>
       <c r="W11" t="n">
-        <v>3.952393967665557e-12</v>
+        <v>5.026112859241039e-11</v>
       </c>
       <c r="X11" t="n">
-        <v>18.68408408408432</v>
+        <v>16.41041041041056</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.57613613613634</v>
+        <v>14.0660660660662</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.7920320320323</v>
+        <v>18.75475475475493</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.9300000000003</v>
+        <v>23.42000000000022</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.949136126166984e-06</v>
+        <v>0.0001417337058668977</v>
       </c>
       <c r="I12" t="n">
-        <v>1.949136126166984e-06</v>
+        <v>0.0001417337058668977</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>63.78183157491607</v>
+        <v>53.59993132300353</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[36.3154194862625, 91.24824366356964]</t>
+          <t>[24.513745575729644, 82.68611707027742]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2.673270471653666e-05</v>
+        <v>0.000564885513889557</v>
       </c>
       <c r="O12" t="n">
-        <v>2.673270471653666e-05</v>
+        <v>0.000564885513889557</v>
       </c>
       <c r="P12" t="n">
-        <v>1.239026532046425</v>
+        <v>1.792500312859041</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.77360539818127, 1.7044476659115793]</t>
+          <t>[1.1887107337907326, 2.39628989192735]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.733420557010646e-06</v>
+        <v>3.350479220731728e-07</v>
       </c>
       <c r="S12" t="n">
-        <v>2.733420557010646e-06</v>
+        <v>3.350479220731728e-07</v>
       </c>
       <c r="T12" t="n">
-        <v>72.90933767412686</v>
+        <v>80.28404050999269</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[57.739695052730454, 88.07898029552327]</t>
+          <t>[64.09880470453757, 96.46927631544781]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.424638185199001e-12</v>
+        <v>5.355715870791755e-13</v>
       </c>
       <c r="W12" t="n">
-        <v>1.424638185199001e-12</v>
+        <v>5.355715870791755e-13</v>
       </c>
       <c r="X12" t="n">
-        <v>19.21107107107131</v>
+        <v>16.73861861861878</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.4384784784787</v>
+        <v>14.48804804804818</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.98366366366393</v>
+        <v>18.98918918918937</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.9300000000003</v>
+        <v>23.42000000000022</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.237401400806416e-05</v>
+        <v>4.187262073740428e-07</v>
       </c>
       <c r="I13" t="n">
-        <v>2.237401400806416e-05</v>
+        <v>4.187262073740428e-07</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>57.31956103912479</v>
+        <v>58.96036386473636</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[30.389115366044038, 84.25000671220553]</t>
+          <t>[36.42464573255184, 81.49608199692088]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>9.444749532971919e-05</v>
+        <v>3.731364664139036e-06</v>
       </c>
       <c r="O13" t="n">
-        <v>9.444749532971919e-05</v>
+        <v>3.731364664139036e-06</v>
       </c>
       <c r="P13" t="n">
-        <v>1.855395060678656</v>
+        <v>1.842816111114733</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.3019212798660398, 2.408868841491273]</t>
+          <t>[1.4025528763774249, 2.283079345852042]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.380209451757764e-08</v>
+        <v>8.215184088555816e-11</v>
       </c>
       <c r="S13" t="n">
-        <v>2.380209451757764e-08</v>
+        <v>8.215184088555816e-11</v>
       </c>
       <c r="T13" t="n">
-        <v>70.49635719889551</v>
+        <v>63.47492626060995</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[54.94297779683559, 86.04973660095543]</t>
+          <t>[50.566910700893175, 76.38294182032672]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>8.337552870330001e-12</v>
+        <v>7.02327085377874e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>8.337552870330001e-12</v>
+        <v>7.02327085377874e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>16.8635835835838</v>
+        <v>16.55107107107123</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.75563563563582</v>
+        <v>14.91003003003017</v>
       </c>
       <c r="Z13" t="n">
-        <v>18.97153153153177</v>
+        <v>18.19211211211228</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.9300000000003</v>
+        <v>23.42000000000022</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001925307725221037</v>
+        <v>0.001945432100067035</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001925307725221037</v>
+        <v>0.001945432100067035</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>38.14656860627173</v>
+        <v>38.80243387782737</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[12.476212809634788, 63.81692440290867]</t>
+          <t>[11.353658874692961, 66.25120888096177]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.004474260159267773</v>
+        <v>0.006622952130688864</v>
       </c>
       <c r="O14" t="n">
-        <v>0.004474260159267773</v>
+        <v>0.006622952130688864</v>
       </c>
       <c r="P14" t="n">
-        <v>1.817658211986887</v>
+        <v>2.345974093671658</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.0126054398958093, 2.6227109840779654]</t>
+          <t>[1.6918687163476567, 3.0000794709956584]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>4.080619266555452e-05</v>
+        <v>4.753175408822585e-09</v>
       </c>
       <c r="S14" t="n">
-        <v>4.080619266555452e-05</v>
+        <v>4.753175408822585e-09</v>
       </c>
       <c r="T14" t="n">
-        <v>50.66681784516543</v>
+        <v>58.14599264417458</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[36.377839908539926, 64.95579578179093]</t>
+          <t>[43.57915099927642, 72.71283428907275]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>6.283012776719943e-09</v>
+        <v>3.018592042991486e-10</v>
       </c>
       <c r="W14" t="n">
-        <v>6.283012776719943e-09</v>
+        <v>3.018592042991486e-10</v>
       </c>
       <c r="X14" t="n">
-        <v>17.00730730730752</v>
+        <v>14.67559559559573</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.94120120120138</v>
+        <v>12.23747747747759</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.07341341341366</v>
+        <v>17.11371371371387</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_6_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_6_square_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.08000000000033</v>
+        <v>23.9500000000003</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>9.673536133014693e-06</v>
+        <v>4.687423843963145e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>9.673536133014693e-06</v>
+        <v>4.687423843963145e-06</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>55.94790282046719</v>
+        <v>57.57830337704237</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[29.450986528447928, 82.44481911248646]</t>
+          <t>[35.354358332804, 79.80224842128074]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0001052924133282396</v>
+        <v>4.434115525198123e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0001052924133282396</v>
+        <v>4.434115525198123e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>1.226447582482502</v>
+        <v>1.50318447288881</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.6855527512338089, 1.7673424137311944]</t>
+          <t>[1.0126054398958093, 1.9937635058818106]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.831238604945497e-05</v>
+        <v>1.737112302890864e-07</v>
       </c>
       <c r="S2" t="n">
-        <v>3.831238604945497e-05</v>
+        <v>1.737112302890864e-07</v>
       </c>
       <c r="T2" t="n">
-        <v>65.72112959929896</v>
+        <v>58.52619354758393</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[51.205237370971375, 80.23702182762655]</t>
+          <t>[44.20822931840557, 72.84415777676229]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>8.61466453727644e-12</v>
+        <v>1.58345558887163e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>8.61466453727644e-12</v>
+        <v>1.58345558887163e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>19.37969969969996</v>
+        <v>18.22022022022045</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.30674674674698</v>
+        <v>16.35025025025046</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.45265265265294</v>
+        <v>20.09019019019044</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.08000000000033</v>
+        <v>23.9500000000003</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.226671726162198e-05</v>
+        <v>0.0002542058569815486</v>
       </c>
       <c r="I3" t="n">
-        <v>1.226671726162198e-05</v>
+        <v>0.0002542058569815486</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>51.5709127334451</v>
+        <v>46.48901579090312</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[26.405830104188297, 76.7359953627019]</t>
+          <t>[20.481982505129125, 72.49604907667711]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0001565063980508707</v>
+        <v>0.0007886786974031779</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0001565063980508707</v>
+        <v>0.0007886786974031779</v>
       </c>
       <c r="P3" t="n">
-        <v>2.081816152829272</v>
+        <v>1.83023716155081</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.5786581702723472, 2.5849741353861964]</t>
+          <t>[1.1635528346628856, 2.496921488438735]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.133624305538206e-10</v>
+        <v>1.551535694144235e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>1.133624305538206e-10</v>
+        <v>1.551535694144235e-06</v>
       </c>
       <c r="T3" t="n">
-        <v>60.96993183011804</v>
+        <v>61.03969177481179</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[47.40922339720848, 74.5306402630276]</t>
+          <t>[46.26455620558919, 75.8148273440344]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.057887111244327e-11</v>
+        <v>1.182074438332847e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>1.057887111244327e-11</v>
+        <v>1.182074438332847e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>16.10154154154176</v>
+        <v>16.97357357357379</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.1732132132134</v>
+        <v>14.43233233233251</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.02986986987012</v>
+        <v>19.51481481481507</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.08000000000033</v>
+        <v>23.9500000000003</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>8.527500181454428e-05</v>
+        <v>0.001459906415175682</v>
       </c>
       <c r="I4" t="n">
-        <v>8.527500181454428e-05</v>
+        <v>0.001459906415175682</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>63.95230906210087</v>
+        <v>46.24724758451497</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[34.67125996598391, 93.23335815821783]</t>
+          <t>[16.57487591755509, 75.91961925147484]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>6.595440847823042e-05</v>
+        <v>0.002989139670200425</v>
       </c>
       <c r="O4" t="n">
-        <v>6.595440847823042e-05</v>
+        <v>0.002989139670200425</v>
       </c>
       <c r="P4" t="n">
-        <v>1.591237119836271</v>
+        <v>1.427710775505271</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.9748685912040393, 2.207605648468503]</t>
+          <t>[0.6478159025420389, 2.207605648468503]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>4.718438163964223e-06</v>
+        <v>0.0006081437968388226</v>
       </c>
       <c r="S4" t="n">
-        <v>4.718438163964223e-06</v>
+        <v>0.0006081437968388226</v>
       </c>
       <c r="T4" t="n">
-        <v>68.97083408855211</v>
+        <v>61.98078054775134</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[50.06347676613868, 87.87819141096554]</t>
+          <t>[45.07861699366468, 78.88294410183799]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.12350123543581e-09</v>
+        <v>2.739002136209479e-09</v>
       </c>
       <c r="W4" t="n">
-        <v>3.12350123543581e-09</v>
+        <v>2.739002136209479e-09</v>
       </c>
       <c r="X4" t="n">
-        <v>17.98166166166191</v>
+        <v>18.50790790790814</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.61945945945967</v>
+        <v>15.53513513513533</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.34386386386414</v>
+        <v>21.48068068068095</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.08000000000033</v>
+        <v>23.9500000000003</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008543181850799719</v>
+        <v>0.02924625909150591</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0008543181850799719</v>
+        <v>0.02924625909150591</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>42.86916739963277</v>
+        <v>25.09811287189392</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[16.751833381822962, 68.98650141744257]</t>
+          <t>[3.200781549832108, 46.99544419395574]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.001864770619364631</v>
+        <v>0.02562094096674694</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001864770619364631</v>
+        <v>0.02562094096674694</v>
       </c>
       <c r="P5" t="n">
-        <v>1.364816027685655</v>
+        <v>1.402552876377425</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.635236952978115, 2.094395102393195]</t>
+          <t>[0.19497371824080734, 2.6101320345140424]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.0004765024184938405</v>
+        <v>0.02381853612115292</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0004765024184938405</v>
+        <v>0.02381853612115292</v>
       </c>
       <c r="T5" t="n">
-        <v>61.81000162425103</v>
+        <v>59.59247116285612</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[46.81937941053786, 76.8006238379642]</t>
+          <t>[46.67996715731442, 72.50497516839782]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.2470802168707e-10</v>
+        <v>4.875211345733987e-12</v>
       </c>
       <c r="W5" t="n">
-        <v>1.2470802168707e-10</v>
+        <v>4.875211345733987e-12</v>
       </c>
       <c r="X5" t="n">
-        <v>18.84940940940967</v>
+        <v>18.60380380380404</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.05333333333355</v>
+        <v>14.00080080080098</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.64548548548578</v>
+        <v>23.2068068068071</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.08000000000033</v>
+        <v>23.9500000000003</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009592802262278211</v>
+        <v>5.614572642698157e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009592802262278211</v>
+        <v>5.614572642698157e-06</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>38.10735167269533</v>
+        <v>60.58018973456833</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[15.197442507176156, 61.017260838214504]</t>
+          <t>[35.4349521799421, 85.72542728919456]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.001642285833519663</v>
+        <v>1.501290387784238e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001642285833519663</v>
+        <v>1.501290387784238e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>1.943447707626119</v>
+        <v>1.729605565039425</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.2516054816103486, 2.6352899336418885]</t>
+          <t>[1.2264475824825016, 2.232763547596349]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.002907303648826e-06</v>
+        <v>1.323369414052422e-08</v>
       </c>
       <c r="S6" t="n">
-        <v>1.002907303648826e-06</v>
+        <v>1.323369414052422e-08</v>
       </c>
       <c r="T6" t="n">
-        <v>52.98378574584978</v>
+        <v>61.3669846654779</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[39.5355680524981, 66.43200343920145]</t>
+          <t>[46.1521040913848, 76.581865239571]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.283216004097312e-10</v>
+        <v>2.279711974750853e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>4.283216004097312e-10</v>
+        <v>2.279711974750853e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>16.63183183183206</v>
+        <v>17.35715715715738</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.98038038038057</v>
+        <v>15.43923923923944</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.28328328328354</v>
+        <v>19.27507507507532</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.08000000000033</v>
+        <v>23.9500000000003</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0009612269819817554</v>
+        <v>0.0005396072539497476</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0009612269819817554</v>
+        <v>0.0005396072539497476</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>44.36714567818117</v>
+        <v>46.66461292641722</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[17.58338481338663, 71.1509065429757]</t>
+          <t>[16.580069450610978, 76.74915640222346]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.001708979690091539</v>
+        <v>0.003117427938952755</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001708979690091539</v>
+        <v>0.003117427938952755</v>
       </c>
       <c r="P7" t="n">
-        <v>1.415131825941349</v>
+        <v>2.132131951084965</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.6855527512338098, 2.144710900648888]</t>
+          <t>[1.515763422452733, 2.7485004797171966]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.0003114669904349388</v>
+        <v>1.139944139083582e-08</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0003114669904349388</v>
+        <v>1.139944139083582e-08</v>
       </c>
       <c r="T7" t="n">
-        <v>61.19996028937858</v>
+        <v>60.505008330533</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[45.52093414361265, 76.87898643514451]</t>
+          <t>[44.821655976487335, 76.18836068457867]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>5.484375176223466e-10</v>
+        <v>7.460294604300088e-10</v>
       </c>
       <c r="W7" t="n">
-        <v>5.484375176223466e-10</v>
+        <v>7.460294604300088e-10</v>
       </c>
       <c r="X7" t="n">
-        <v>18.65657657657682</v>
+        <v>15.82282282282302</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.86050050050071</v>
+        <v>13.47337337337354</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.45265265265294</v>
+        <v>18.1722722722725</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.08000000000033</v>
+        <v>23.9500000000003</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.12908819671631e-06</v>
+        <v>1.269530040293176e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>1.12908819671631e-06</v>
+        <v>1.269530040293176e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>54.20521887674822</v>
+        <v>57.07931977527116</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[34.14516612698789, 74.26527162650855]</t>
+          <t>[33.545509327161696, 80.61313022338062]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.082265026182029e-06</v>
+        <v>1.347569433329809e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>2.082265026182029e-06</v>
+        <v>1.347569433329809e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>1.427710775505271</v>
+        <v>1.553500271144502</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.9748685912040393, 1.8805529598065025]</t>
+          <t>[1.0503422885875775, 2.0566582537014266]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>9.423575653144667e-08</v>
+        <v>1.478307047886318e-07</v>
       </c>
       <c r="S8" t="n">
-        <v>9.423575653144667e-08</v>
+        <v>1.478307047886318e-07</v>
       </c>
       <c r="T8" t="n">
-        <v>52.14334089256764</v>
+        <v>67.32423520484804</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[39.55351404664714, 64.73316773848813]</t>
+          <t>[52.32485500957725, 82.32361540011883]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.102196112157117e-10</v>
+        <v>1.111821745780617e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>1.102196112157117e-10</v>
+        <v>1.111821745780617e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>18.60836836836862</v>
+        <v>18.02842842842866</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.8728728728731</v>
+        <v>16.11051051051071</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.34386386386414</v>
+        <v>19.9463463463466</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.08000000000033</v>
+        <v>23.9500000000003</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.235891482960106e-06</v>
+        <v>0.0001152740208061331</v>
       </c>
       <c r="I9" t="n">
-        <v>2.235891482960106e-06</v>
+        <v>0.0001152740208061331</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>52.49504470195755</v>
+        <v>53.89536046278837</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[31.78795459055918, 73.20213481335593]</t>
+          <t>[27.64063618442819, 80.15008474114856]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>6.458154654387371e-06</v>
+        <v>0.0001530873108241959</v>
       </c>
       <c r="O9" t="n">
-        <v>6.458154654387371e-06</v>
+        <v>0.0001530873108241959</v>
       </c>
       <c r="P9" t="n">
-        <v>1.478026573760964</v>
+        <v>1.66671081721981</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.0126054398958084, 1.9434477076261194]</t>
+          <t>[1.0377633390236554, 2.295658295415965]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>8.046485588941721e-08</v>
+        <v>2.968889530219343e-06</v>
       </c>
       <c r="S9" t="n">
-        <v>8.046485588941721e-08</v>
+        <v>2.968889530219343e-06</v>
       </c>
       <c r="T9" t="n">
-        <v>60.82147984980447</v>
+        <v>67.17108530181233</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[48.22642361452404, 73.4165360850849]</t>
+          <t>[50.948534749529166, 83.39363585409549]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.232125512728999e-12</v>
+        <v>1.110367353618358e-10</v>
       </c>
       <c r="W9" t="n">
-        <v>1.232125512728999e-12</v>
+        <v>1.110367353618358e-10</v>
       </c>
       <c r="X9" t="n">
-        <v>18.41553553553578</v>
+        <v>17.59689689689712</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.63183183183205</v>
+        <v>15.19949949949969</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.19923923923951</v>
+        <v>19.99429429429455</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.42000000000022</v>
+        <v>23.58000000000025</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>4.490228553422071e-07</v>
+        <v>6.754102490624803e-07</v>
       </c>
       <c r="I10" t="n">
-        <v>4.490228553422071e-07</v>
+        <v>6.754102490624803e-07</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>64.07218497607408</v>
+        <v>54.47071516135578</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[41.085122969841876, 87.05924698230629]</t>
+          <t>[34.357396676406495, 74.58403364630506]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.164107659379354e-06</v>
+        <v>1.998253055246479e-06</v>
       </c>
       <c r="O10" t="n">
-        <v>1.164107659379354e-06</v>
+        <v>1.998253055246479e-06</v>
       </c>
       <c r="P10" t="n">
-        <v>1.465447624197041</v>
+        <v>1.66671081721981</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.0377633390236554, 1.8931319093704264]</t>
+          <t>[1.2264475824825016, 2.1069740519571187]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.427746876281333e-08</v>
+        <v>1.218658063351086e-09</v>
       </c>
       <c r="S10" t="n">
-        <v>1.427746876281333e-08</v>
+        <v>1.218658063351086e-09</v>
       </c>
       <c r="T10" t="n">
-        <v>58.76224640224068</v>
+        <v>58.28647340375001</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[44.71009926216548, 72.81439354231588]</t>
+          <t>[46.07462278229346, 70.49832402520656]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>8.436606968587057e-11</v>
+        <v>1.763256207709674e-12</v>
       </c>
       <c r="W10" t="n">
-        <v>8.436606968587057e-11</v>
+        <v>1.763256207709674e-12</v>
       </c>
       <c r="X10" t="n">
-        <v>17.95767767767785</v>
+        <v>17.32504504504523</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.36352352352367</v>
+        <v>15.67279279279295</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.55183183183202</v>
+        <v>18.9772972972975</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.42000000000022</v>
+        <v>23.58000000000025</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0003999169896207189</v>
+        <v>0.001776593645232638</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003999169896207189</v>
+        <v>0.001776593645232638</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>43.90587041441554</v>
+        <v>47.1122662052408</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[17.64768761503383, 70.16405321379725]</t>
+          <t>[18.32695298270744, 75.89757942777416]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.001561045012891782</v>
+        <v>0.001916320018205075</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001561045012891782</v>
+        <v>0.001916320018205075</v>
       </c>
       <c r="P11" t="n">
-        <v>1.880552959806503</v>
+        <v>1.654131867655887</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.2516054816103495, 2.5095004380026573]</t>
+          <t>[0.8365001460008861, 2.4717635893108882]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.894500148453716e-07</v>
+        <v>0.0001847486035124746</v>
       </c>
       <c r="S11" t="n">
-        <v>2.894500148453716e-07</v>
+        <v>0.0001847486035124746</v>
       </c>
       <c r="T11" t="n">
-        <v>60.96098224997148</v>
+        <v>63.60364974987917</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[46.649379893293684, 75.27258460664927]</t>
+          <t>[46.22160687548887, 80.98569262426946]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>5.026112859241039e-11</v>
+        <v>2.89055512858738e-09</v>
       </c>
       <c r="W11" t="n">
-        <v>5.026112859241039e-11</v>
+        <v>2.89055512858738e-09</v>
       </c>
       <c r="X11" t="n">
-        <v>16.41041041041056</v>
+        <v>17.37225225225243</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.0660660660662</v>
+        <v>14.30378378378393</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.75475475475493</v>
+        <v>20.44072072072093</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.42000000000022</v>
+        <v>23.58000000000025</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0001417337058668977</v>
+        <v>0.0005235042002013079</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001417337058668977</v>
+        <v>0.0005235042002013079</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>53.59993132300353</v>
+        <v>55.8057360981478</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[24.513745575729644, 82.68611707027742]</t>
+          <t>[26.2438641319208, 85.36760806437479]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.000564885513889557</v>
+        <v>0.0004291530685573974</v>
       </c>
       <c r="O12" t="n">
-        <v>0.000564885513889557</v>
+        <v>0.0004291530685573974</v>
       </c>
       <c r="P12" t="n">
-        <v>1.792500312859041</v>
+        <v>1.578658170272348</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.1887107337907326, 2.39628989192735]</t>
+          <t>[0.8742369946926551, 2.283079345852041]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.350479220731728e-07</v>
+        <v>4.552579770433773e-05</v>
       </c>
       <c r="S12" t="n">
-        <v>3.350479220731728e-07</v>
+        <v>4.552579770433773e-05</v>
       </c>
       <c r="T12" t="n">
-        <v>80.28404050999269</v>
+        <v>66.66649039581742</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[64.09880470453757, 96.46927631544781]</t>
+          <t>[48.06997580089788, 85.26300499073696]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>5.355715870791755e-13</v>
+        <v>4.807151565699996e-09</v>
       </c>
       <c r="W12" t="n">
-        <v>5.355715870791755e-13</v>
+        <v>4.807151565699996e-09</v>
       </c>
       <c r="X12" t="n">
-        <v>16.73861861861878</v>
+        <v>17.65549549549568</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.48804804804818</v>
+        <v>15.01189189189205</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.98918918918937</v>
+        <v>20.29909909909931</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.42000000000022</v>
+        <v>23.58000000000025</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>4.187262073740428e-07</v>
+        <v>1.233761832664104e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>4.187262073740428e-07</v>
+        <v>1.233761832664104e-05</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>58.96036386473636</v>
+        <v>50.08298590675332</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[36.42464573255184, 81.49608199692088]</t>
+          <t>[28.009496100576484, 72.15647571293016]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.731364664139036e-06</v>
+        <v>3.794300985338062e-05</v>
       </c>
       <c r="O13" t="n">
-        <v>3.731364664139036e-06</v>
+        <v>3.794300985338062e-05</v>
       </c>
       <c r="P13" t="n">
-        <v>1.842816111114733</v>
+        <v>1.83023716155081</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.4025528763774249, 2.283079345852042]</t>
+          <t>[1.2893423303021176, 2.371131992799503]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>8.215184088555816e-11</v>
+        <v>1.916483460817631e-08</v>
       </c>
       <c r="S13" t="n">
-        <v>8.215184088555816e-11</v>
+        <v>1.916483460817631e-08</v>
       </c>
       <c r="T13" t="n">
-        <v>63.47492626060995</v>
+        <v>55.77379113021547</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[50.566910700893175, 76.38294182032672]</t>
+          <t>[42.72913975863385, 68.8184425017971]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>7.02327085377874e-13</v>
+        <v>4.518119212093552e-11</v>
       </c>
       <c r="W13" t="n">
-        <v>7.02327085377874e-13</v>
+        <v>4.518119212093552e-11</v>
       </c>
       <c r="X13" t="n">
-        <v>16.55107107107123</v>
+        <v>16.71135135135153</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.91003003003017</v>
+        <v>14.6814414414416</v>
       </c>
       <c r="Z13" t="n">
-        <v>18.19211211211228</v>
+        <v>18.74126126126146</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.42000000000022</v>
+        <v>23.58000000000025</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001945432100067035</v>
+        <v>4.713831789793232e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001945432100067035</v>
+        <v>4.713831789793232e-05</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>38.80243387782737</v>
+        <v>49.96204990420819</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[11.353658874692961, 66.25120888096177]</t>
+          <t>[22.686205223654568, 77.23789458476182]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.006622952130688864</v>
+        <v>0.0006041469828563795</v>
       </c>
       <c r="O14" t="n">
-        <v>0.006622952130688864</v>
+        <v>0.0006041469828563795</v>
       </c>
       <c r="P14" t="n">
-        <v>2.345974093671658</v>
+        <v>2.182447749340657</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.6918687163476567, 3.0000794709956584]</t>
+          <t>[1.6541318676558863, 2.7107636310254275]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>4.753175408822585e-09</v>
+        <v>1.184383702224068e-10</v>
       </c>
       <c r="S14" t="n">
-        <v>4.753175408822585e-09</v>
+        <v>1.184383702224068e-10</v>
       </c>
       <c r="T14" t="n">
-        <v>58.14599264417458</v>
+        <v>65.24576297370189</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[43.57915099927642, 72.71283428907275]</t>
+          <t>[51.09674421833989, 79.39478172906388]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3.018592042991486e-10</v>
+        <v>4.995559521603354e-12</v>
       </c>
       <c r="W14" t="n">
-        <v>3.018592042991486e-10</v>
+        <v>4.995559521603354e-12</v>
       </c>
       <c r="X14" t="n">
-        <v>14.67559559559573</v>
+        <v>15.38954954954971</v>
       </c>
       <c r="Y14" t="n">
-        <v>12.23747747747759</v>
+        <v>13.40684684684699</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.11371371371387</v>
+        <v>17.37225225225244</v>
       </c>
     </row>
   </sheetData>
